--- a/doc/excel/培训/[sample_cet_annual_obj]批量导入培训对象样表.xlsx
+++ b/doc/excel/培训/[sample_cet_annual_obj]批量导入培训对象样表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sws\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\培训\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>学工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,71 +46,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双肩挑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88086</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">于豪钰
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校长助理、珠海分校校长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校长助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>童成湘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总会计师（正处级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总会计师</t>
+    <t>96049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔天翰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党委办公室主任</t>
+  </si>
+  <si>
+    <t>机关正职</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>双肩挑，支部书记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔天翰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党委办公室主任</t>
-  </si>
-  <si>
-    <t>机关正职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支部书记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +99,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,16 +141,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.125" defaultRowHeight="27.75" customHeight="1"/>
@@ -478,72 +442,38 @@
     <col min="2" max="16384" width="24.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="27.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
